--- a/uploads/المطابع البريدية (مشالات).xlsx
+++ b/uploads/المطابع البريدية (مشالات).xlsx
@@ -561,7 +561,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -577,7 +577,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27906152102012</t>
+          <t>27906152102012.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -636,7 +636,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29106110103753</t>
+          <t>29106110103753.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -695,7 +695,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28308090104497</t>
+          <t>28308090104497.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -754,7 +754,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30704220106979</t>
+          <t>30704220106979.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -797,7 +797,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -813,7 +813,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30012190103571</t>
+          <t>30012190103571.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -859,11 +859,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>محمد</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
